--- a/uploads/Data Finish Goods.xlsx
+++ b/uploads/Data Finish Goods.xlsx
@@ -208,99 +208,6 @@
     <t>SAS</t>
   </si>
   <si>
-    <t>01-Mar</t>
-  </si>
-  <si>
-    <t>02-Mar</t>
-  </si>
-  <si>
-    <t>03-Mar</t>
-  </si>
-  <si>
-    <t>04-Mar</t>
-  </si>
-  <si>
-    <t>05-Mar</t>
-  </si>
-  <si>
-    <t>06-Mar</t>
-  </si>
-  <si>
-    <t>07-Mar</t>
-  </si>
-  <si>
-    <t>08-Mar</t>
-  </si>
-  <si>
-    <t>09-Mar</t>
-  </si>
-  <si>
-    <t>10-Mar</t>
-  </si>
-  <si>
-    <t>11-Mar</t>
-  </si>
-  <si>
-    <t>12-Mar</t>
-  </si>
-  <si>
-    <t>13-Mar</t>
-  </si>
-  <si>
-    <t>14-Mar</t>
-  </si>
-  <si>
-    <t>15-Mar</t>
-  </si>
-  <si>
-    <t>16-Mar</t>
-  </si>
-  <si>
-    <t>17-Mar</t>
-  </si>
-  <si>
-    <t>18-Mar</t>
-  </si>
-  <si>
-    <t>19-Mar</t>
-  </si>
-  <si>
-    <t>20-Mar</t>
-  </si>
-  <si>
-    <t>21-Mar</t>
-  </si>
-  <si>
-    <t>22-Mar</t>
-  </si>
-  <si>
-    <t>23-Mar</t>
-  </si>
-  <si>
-    <t>24-Mar</t>
-  </si>
-  <si>
-    <t>25-Mar</t>
-  </si>
-  <si>
-    <t>26-Mar</t>
-  </si>
-  <si>
-    <t>27-Mar</t>
-  </si>
-  <si>
-    <t>28-Mar</t>
-  </si>
-  <si>
-    <t>29-Mar</t>
-  </si>
-  <si>
-    <t>30-Mar</t>
-  </si>
-  <si>
-    <t>31-Mar</t>
-  </si>
-  <si>
     <t>Lokasi</t>
   </si>
   <si>
@@ -530,6 +437,99 @@
   </si>
   <si>
     <t>E-1</t>
+  </si>
+  <si>
+    <t>01/03/2025</t>
+  </si>
+  <si>
+    <t>02/03/2025</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>05/03/2025</t>
+  </si>
+  <si>
+    <t>06/03/2025</t>
+  </si>
+  <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>08/03/2025</t>
+  </si>
+  <si>
+    <t>09/03/2025</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>15/03/2025</t>
+  </si>
+  <si>
+    <t>16/03/2025</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>22/03/2025</t>
+  </si>
+  <si>
+    <t>23/03/2025</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>29/03/2025</t>
+  </si>
+  <si>
+    <t>30/03/2025</t>
+  </si>
+  <si>
+    <t>31/03/2025</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1597,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="283">
     <cellStyle name="20% - アクセント 1" xfId="50"/>
@@ -1944,37 +1944,37 @@
     <tableColumn id="8" name="Minggu III"/>
     <tableColumn id="9" name="Minggu IV"/>
     <tableColumn id="10" name="Minggu V"/>
-    <tableColumn id="11" name="01-Mar"/>
-    <tableColumn id="12" name="02-Mar"/>
-    <tableColumn id="13" name="03-Mar"/>
-    <tableColumn id="14" name="04-Mar"/>
-    <tableColumn id="15" name="05-Mar"/>
-    <tableColumn id="16" name="06-Mar"/>
-    <tableColumn id="17" name="07-Mar"/>
-    <tableColumn id="18" name="08-Mar"/>
-    <tableColumn id="19" name="09-Mar"/>
-    <tableColumn id="20" name="10-Mar"/>
-    <tableColumn id="21" name="11-Mar"/>
-    <tableColumn id="22" name="12-Mar"/>
-    <tableColumn id="23" name="13-Mar"/>
-    <tableColumn id="24" name="14-Mar"/>
-    <tableColumn id="25" name="15-Mar"/>
-    <tableColumn id="26" name="16-Mar"/>
-    <tableColumn id="27" name="17-Mar"/>
-    <tableColumn id="28" name="18-Mar"/>
-    <tableColumn id="29" name="19-Mar"/>
-    <tableColumn id="30" name="20-Mar"/>
-    <tableColumn id="31" name="21-Mar"/>
-    <tableColumn id="32" name="22-Mar"/>
-    <tableColumn id="33" name="23-Mar"/>
-    <tableColumn id="34" name="24-Mar"/>
-    <tableColumn id="35" name="25-Mar"/>
-    <tableColumn id="36" name="26-Mar"/>
-    <tableColumn id="37" name="27-Mar"/>
-    <tableColumn id="38" name="28-Mar"/>
-    <tableColumn id="39" name="29-Mar"/>
-    <tableColumn id="40" name="30-Mar"/>
-    <tableColumn id="41" name="31-Mar"/>
+    <tableColumn id="11" name="01/03/2025"/>
+    <tableColumn id="12" name="02/03/2025"/>
+    <tableColumn id="13" name="03/03/2025"/>
+    <tableColumn id="14" name="04/03/2025"/>
+    <tableColumn id="15" name="05/03/2025"/>
+    <tableColumn id="16" name="06/03/2025"/>
+    <tableColumn id="17" name="07/03/2025"/>
+    <tableColumn id="18" name="08/03/2025"/>
+    <tableColumn id="19" name="09/03/2025"/>
+    <tableColumn id="20" name="10/03/2025"/>
+    <tableColumn id="21" name="11/03/2025"/>
+    <tableColumn id="22" name="12/03/2025"/>
+    <tableColumn id="23" name="13/03/2025"/>
+    <tableColumn id="24" name="14/03/2025"/>
+    <tableColumn id="25" name="15/03/2025"/>
+    <tableColumn id="26" name="16/03/2025"/>
+    <tableColumn id="27" name="17/03/2025"/>
+    <tableColumn id="28" name="18/03/2025"/>
+    <tableColumn id="29" name="19/03/2025"/>
+    <tableColumn id="30" name="20/03/2025"/>
+    <tableColumn id="31" name="21/03/2025"/>
+    <tableColumn id="32" name="22/03/2025"/>
+    <tableColumn id="33" name="23/03/2025"/>
+    <tableColumn id="34" name="24/03/2025"/>
+    <tableColumn id="35" name="25/03/2025"/>
+    <tableColumn id="36" name="26/03/2025"/>
+    <tableColumn id="37" name="27/03/2025"/>
+    <tableColumn id="38" name="28/03/2025"/>
+    <tableColumn id="39" name="29/03/2025"/>
+    <tableColumn id="40" name="30/03/2025"/>
+    <tableColumn id="41" name="31/03/2025"/>
     <tableColumn id="42" name="Keterangan"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2782,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2833,98 +2833,98 @@
       <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>90</v>
+      <c r="K1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="AP1" t="s">
         <v>38</v>
@@ -2934,16 +2934,16 @@
       <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2839</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2754</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1285</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1554</v>
       </c>
       <c r="F2">
@@ -3184,16 +3184,16 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3335</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3460</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1675</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1660</v>
       </c>
       <c r="F4">
@@ -3309,10 +3309,10 @@
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1341</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1328</v>
       </c>
       <c r="D5">
@@ -5483,8 +5483,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5494,108 +5495,108 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="S1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AF1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="U2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="X2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AC2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AG2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>-2</v>
@@ -5604,13 +5605,13 @@
         <v>-9</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="L3">
         <v>-1</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O3">
         <v>-11</v>
@@ -5619,7 +5620,7 @@
         <v>-4</v>
       </c>
       <c r="S3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="T3">
         <v>-10</v>
@@ -5628,7 +5629,7 @@
         <v>-2</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="X3">
         <v>-4</v>
@@ -5637,7 +5638,7 @@
         <v>-1</v>
       </c>
       <c r="AB3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AC3">
         <v>-4</v>
@@ -5646,7 +5647,7 @@
         <v>-3</v>
       </c>
       <c r="AF3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG3">
         <v>-1</v>
@@ -5657,10 +5658,10 @@
     </row>
     <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -5669,13 +5670,13 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
         <v>9</v>
@@ -5684,7 +5685,7 @@
         <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s">
         <v>20</v>
@@ -5693,7 +5694,7 @@
         <v>16</v>
       </c>
       <c r="W4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
         <v>12</v>
@@ -5702,7 +5703,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s">
         <v>19</v>
@@ -5711,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s">
         <v>12</v>
@@ -5722,60 +5723,60 @@
     </row>
     <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="X6" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="AK6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>113267</v>
@@ -5784,7 +5785,7 @@
         <v>113216</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>310726</v>
@@ -5793,7 +5794,7 @@
         <v>113265</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K7">
         <v>310729</v>
@@ -5802,7 +5803,7 @@
         <v>113261</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O7">
         <v>113216</v>
@@ -5811,7 +5812,7 @@
         <v>113261</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="T7">
         <v>310727</v>
@@ -5820,16 +5821,16 @@
         <v>113262</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="X7">
         <v>113262</v>
       </c>
       <c r="Y7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AC7">
         <v>113223</v>
@@ -5838,7 +5839,7 @@
         <v>113263</v>
       </c>
       <c r="AF7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AG7">
         <v>113263</v>
@@ -5847,18 +5848,18 @@
         <v>113269</v>
       </c>
       <c r="AK7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AL7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>-40</v>
@@ -5867,7 +5868,7 @@
         <v>-32</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>-29</v>
@@ -5876,7 +5877,7 @@
         <v>-37</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>-38</v>
@@ -5885,7 +5886,7 @@
         <v>-40</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <v>-40</v>
@@ -5894,7 +5895,7 @@
         <v>-34</v>
       </c>
       <c r="S8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="T8">
         <v>-31</v>
@@ -5903,7 +5904,7 @@
         <v>-40</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="X8">
         <v>-36</v>
@@ -5912,7 +5913,7 @@
         <v>-40</v>
       </c>
       <c r="AB8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AC8">
         <v>-35</v>
@@ -5921,7 +5922,7 @@
         <v>-36</v>
       </c>
       <c r="AF8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG8">
         <v>-40</v>
@@ -5930,7 +5931,7 @@
         <v>-40</v>
       </c>
       <c r="AK8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AL8">
         <v>-3</v>
@@ -5941,7 +5942,7 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -5950,7 +5951,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -5959,7 +5960,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -5968,7 +5969,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -5977,7 +5978,7 @@
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s">
         <v>16</v>
@@ -5986,7 +5987,7 @@
         <v>12</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s">
         <v>12</v>
@@ -5995,7 +5996,7 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s">
         <v>9</v>
@@ -6004,7 +6005,7 @@
         <v>12</v>
       </c>
       <c r="AF9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s">
         <v>12</v>
@@ -6013,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="AK9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s">
         <v>17</v>
@@ -6024,63 +6025,63 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" t="s">
-        <v>122</v>
-      </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="W11" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="AB11" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AC11" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>113175</v>
@@ -6089,7 +6090,7 @@
         <v>113217</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>113214</v>
@@ -6098,13 +6099,13 @@
         <v>113266</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="L12">
         <v>113265</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O12">
         <v>113257</v>
@@ -6113,7 +6114,7 @@
         <v>113256</v>
       </c>
       <c r="S12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="T12">
         <v>113226</v>
@@ -6122,37 +6123,37 @@
         <v>113240</v>
       </c>
       <c r="W12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="X12">
         <v>113248</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="AB12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AC12">
         <v>113213</v>
       </c>
       <c r="AD12" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AG12" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AH12">
         <v>113258</v>
       </c>
       <c r="AK12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AL12" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AM12">
         <v>113217</v>
@@ -6160,7 +6161,7 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -6169,7 +6170,7 @@
         <v>-25</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>-48</v>
@@ -6178,13 +6179,13 @@
         <v>-34</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="L13">
         <v>-40</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O13">
         <v>-40</v>
@@ -6193,7 +6194,7 @@
         <v>-37</v>
       </c>
       <c r="S13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="T13">
         <v>-41</v>
@@ -6202,7 +6203,7 @@
         <v>-44</v>
       </c>
       <c r="W13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="X13">
         <v>-36</v>
@@ -6211,7 +6212,7 @@
         <v>-40</v>
       </c>
       <c r="AB13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AC13">
         <v>-40</v>
@@ -6220,7 +6221,7 @@
         <v>-40</v>
       </c>
       <c r="AF13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG13">
         <v>-40</v>
@@ -6229,7 +6230,7 @@
         <v>-80</v>
       </c>
       <c r="AK13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AL13">
         <v>-20</v>
@@ -6240,7 +6241,7 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -6249,7 +6250,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -6258,13 +6259,13 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
         <v>20</v>
@@ -6273,7 +6274,7 @@
         <v>20</v>
       </c>
       <c r="S14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s">
         <v>10</v>
@@ -6282,7 +6283,7 @@
         <v>9</v>
       </c>
       <c r="W14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s">
         <v>12</v>
@@ -6291,7 +6292,7 @@
         <v>19</v>
       </c>
       <c r="AB14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s">
         <v>7</v>
@@ -6300,7 +6301,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s">
         <v>19</v>
@@ -6309,7 +6310,7 @@
         <v>19</v>
       </c>
       <c r="AK14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s">
         <v>21</v>
@@ -6320,63 +6321,63 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="W16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="X16" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AB16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AC16" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="AF16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AG16" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="AK16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>113218</v>
@@ -6385,34 +6386,34 @@
         <v>113233</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>310728</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="L17">
         <v>113245</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O17">
         <v>310725</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="S17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="T17">
         <v>310720</v>
@@ -6421,7 +6422,7 @@
         <v>113260</v>
       </c>
       <c r="W17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="X17">
         <v>113228</v>
@@ -6430,7 +6431,7 @@
         <v>113218</v>
       </c>
       <c r="AB17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AC17">
         <v>113223</v>
@@ -6439,19 +6440,19 @@
         <v>113269</v>
       </c>
       <c r="AF17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AG17">
         <v>113224</v>
       </c>
       <c r="AH17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AL17" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="AM17">
         <v>113231</v>
@@ -6459,7 +6460,7 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>-32</v>
@@ -6468,7 +6469,7 @@
         <v>-4</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <v>-28</v>
@@ -6477,7 +6478,7 @@
         <v>-40</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="K18">
         <v>-50</v>
@@ -6486,7 +6487,7 @@
         <v>-39</v>
       </c>
       <c r="N18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O18">
         <v>-23</v>
@@ -6495,7 +6496,7 @@
         <v>-40</v>
       </c>
       <c r="S18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="T18">
         <v>-31</v>
@@ -6504,7 +6505,7 @@
         <v>-40</v>
       </c>
       <c r="W18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="X18">
         <v>-76</v>
@@ -6513,7 +6514,7 @@
         <v>-2</v>
       </c>
       <c r="AB18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AC18">
         <v>-40</v>
@@ -6522,7 +6523,7 @@
         <v>-38</v>
       </c>
       <c r="AF18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG18">
         <v>-28</v>
@@ -6531,7 +6532,7 @@
         <v>-2</v>
       </c>
       <c r="AK18" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AL18">
         <v>-8</v>
@@ -6542,7 +6543,7 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -6551,7 +6552,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -6560,7 +6561,7 @@
         <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -6569,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O19" t="s">
         <v>16</v>
@@ -6578,7 +6579,7 @@
         <v>19</v>
       </c>
       <c r="S19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s">
         <v>24</v>
@@ -6587,7 +6588,7 @@
         <v>19</v>
       </c>
       <c r="W19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s">
         <v>10</v>
@@ -6596,7 +6597,7 @@
         <v>12</v>
       </c>
       <c r="AB19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s">
         <v>9</v>
@@ -6605,7 +6606,7 @@
         <v>10</v>
       </c>
       <c r="AF19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s">
         <v>9</v>
@@ -6614,7 +6615,7 @@
         <v>19</v>
       </c>
       <c r="AK19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s">
         <v>7</v>
@@ -6625,63 +6626,63 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="W21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="X21" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="AB21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AC21" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AF21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AG21" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="AK21" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>113268</v>
@@ -6690,16 +6691,16 @@
         <v>113207</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="G22">
         <v>113266</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <v>113248</v>
@@ -6708,7 +6709,7 @@
         <v>113233</v>
       </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O22">
         <v>113177</v>
@@ -6717,25 +6718,25 @@
         <v>113257</v>
       </c>
       <c r="S22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="T22" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="U22">
         <v>113213</v>
       </c>
       <c r="W22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="X22" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="Y22">
         <v>113259</v>
       </c>
       <c r="AB22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AC22">
         <v>113255</v>
@@ -6744,7 +6745,7 @@
         <v>113242</v>
       </c>
       <c r="AF22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AG22">
         <v>113232</v>
@@ -6753,7 +6754,7 @@
         <v>113231</v>
       </c>
       <c r="AK22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AL22">
         <v>113227</v>
@@ -6764,7 +6765,7 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>-75</v>
@@ -6773,7 +6774,7 @@
         <v>-1</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>-40</v>
@@ -6782,7 +6783,7 @@
         <v>-41</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="K23">
         <v>-40</v>
@@ -6791,7 +6792,7 @@
         <v>-12</v>
       </c>
       <c r="N23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O23">
         <v>-38</v>
@@ -6800,7 +6801,7 @@
         <v>-36</v>
       </c>
       <c r="S23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="T23">
         <v>-40</v>
@@ -6809,7 +6810,7 @@
         <v>-24</v>
       </c>
       <c r="W23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="X23">
         <v>-16</v>
@@ -6818,7 +6819,7 @@
         <v>-76</v>
       </c>
       <c r="AB23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AC23">
         <v>-35</v>
@@ -6827,7 +6828,7 @@
         <v>-36</v>
       </c>
       <c r="AF23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG23">
         <v>-40</v>
@@ -6836,7 +6837,7 @@
         <v>-40</v>
       </c>
       <c r="AK23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AL23">
         <v>-48</v>
@@ -6847,7 +6848,7 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -6856,7 +6857,7 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
@@ -6865,7 +6866,7 @@
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -6874,7 +6875,7 @@
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O24" t="s">
         <v>12</v>
@@ -6883,7 +6884,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s">
         <v>19</v>
@@ -6892,7 +6893,7 @@
         <v>7</v>
       </c>
       <c r="W24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s">
         <v>9</v>
@@ -6901,7 +6902,7 @@
         <v>19</v>
       </c>
       <c r="AB24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s">
         <v>20</v>
@@ -6910,7 +6911,7 @@
         <v>9</v>
       </c>
       <c r="AF24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s">
         <v>12</v>
@@ -6919,7 +6920,7 @@
         <v>17</v>
       </c>
       <c r="AK24" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s">
         <v>10</v>
@@ -6930,63 +6931,63 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="S26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="W26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="X26" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AC26" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AF26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AG26" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AK26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AL26" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>113230</v>
@@ -6995,7 +6996,7 @@
         <v>113243</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F27">
         <v>113247</v>
@@ -7004,7 +7005,7 @@
         <v>113246</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K27">
         <v>113247</v>
@@ -7013,7 +7014,7 @@
         <v>113224</v>
       </c>
       <c r="N27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O27">
         <v>113242</v>
@@ -7022,16 +7023,16 @@
         <v>113246</v>
       </c>
       <c r="S27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="T27" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="U27" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="W27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="X27">
         <v>113226</v>
@@ -7040,7 +7041,7 @@
         <v>113227</v>
       </c>
       <c r="AB27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AC27">
         <v>113256</v>
@@ -7049,7 +7050,7 @@
         <v>113232</v>
       </c>
       <c r="AF27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AG27">
         <v>113260</v>
@@ -7058,18 +7059,18 @@
         <v>113264</v>
       </c>
       <c r="AK27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AL27">
         <v>113175</v>
       </c>
       <c r="AM27" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>-77</v>
@@ -7078,7 +7079,7 @@
         <v>-2</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F28">
         <v>-40</v>
@@ -7087,7 +7088,7 @@
         <v>-40</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="K28">
         <v>40</v>
@@ -7096,7 +7097,7 @@
         <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O28">
         <v>40</v>
@@ -7105,7 +7106,7 @@
         <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="T28">
         <v>-28</v>
@@ -7114,7 +7115,7 @@
         <v>-28</v>
       </c>
       <c r="W28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="X28">
         <v>-40</v>
@@ -7123,7 +7124,7 @@
         <v>-29</v>
       </c>
       <c r="AB28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AC28">
         <v>-40</v>
@@ -7132,7 +7133,7 @@
         <v>-35</v>
       </c>
       <c r="AF28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG28">
         <v>-35</v>
@@ -7141,7 +7142,7 @@
         <v>-31</v>
       </c>
       <c r="AK28" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AL28">
         <v>-44</v>
@@ -7152,7 +7153,7 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -7161,7 +7162,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -7170,7 +7171,7 @@
         <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -7179,7 +7180,7 @@
         <v>9</v>
       </c>
       <c r="N29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O29" t="s">
         <v>9</v>
@@ -7188,7 +7189,7 @@
         <v>12</v>
       </c>
       <c r="S29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s">
         <v>19</v>
@@ -7197,7 +7198,7 @@
         <v>20</v>
       </c>
       <c r="W29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s">
         <v>10</v>
@@ -7206,7 +7207,7 @@
         <v>10</v>
       </c>
       <c r="AB29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s">
         <v>20</v>
@@ -7215,7 +7216,7 @@
         <v>12</v>
       </c>
       <c r="AF29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s">
         <v>19</v>
@@ -7224,7 +7225,7 @@
         <v>17</v>
       </c>
       <c r="AK29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s">
         <v>10</v>
@@ -7235,15 +7236,15 @@
     </row>
     <row r="31" spans="1:39">
       <c r="AK31" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AL31" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="AK32" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AL32">
         <v>113222</v>
@@ -7254,7 +7255,7 @@
     </row>
     <row r="33" spans="37:39">
       <c r="AK33" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AL33">
         <v>-42</v>
@@ -7265,7 +7266,7 @@
     </row>
     <row r="34" spans="37:39">
       <c r="AK34" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s">
         <v>9</v>

--- a/uploads/Data Finish Goods.xlsx
+++ b/uploads/Data Finish Goods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="171">
   <si>
     <t>Nama Produk</t>
   </si>
@@ -109,9 +109,6 @@
     <t>HS2-A.1</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer </t>
   </si>
   <si>
@@ -145,12 +142,6 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Cust. Lokal</t>
-  </si>
-  <si>
-    <t>Cust. Ekspor</t>
-  </si>
-  <si>
     <t>AHM</t>
   </si>
   <si>
@@ -530,6 +521,24 @@
   </si>
   <si>
     <t>31/03/2025</t>
+  </si>
+  <si>
+    <t>DEGENSHA</t>
+  </si>
+  <si>
+    <t>HITACHI ASTEMO BEKASI MANUFACTURING</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>HEKIKAI</t>
+  </si>
+  <si>
+    <t>ENKEI</t>
   </si>
 </sst>
 </file>
@@ -1903,36 +1912,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblBalance" displayName="tblBalance" ref="A1:G22" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblBalance" displayName="tblBalance" ref="A1:G21" totalsRowShown="0">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nama Produk" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="BegBal" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(tblBalance[BegBal])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Incoming" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(tblBalance[Incoming])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Delivery" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(tblBalance[Delivery])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" name="Qty. Stock" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(tblBalance[Qty. Stock])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="MAPI" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(tblBalance[MAPI])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="JTI" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(tblBalance[JTI])</totalsRowFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Nama Produk"/>
+    <tableColumn id="2" name="BegBal"/>
+    <tableColumn id="3" name="Incoming"/>
+    <tableColumn id="4" name="Delivery"/>
+    <tableColumn id="5" name="Qty. Stock"/>
+    <tableColumn id="6" name="MAPI"/>
+    <tableColumn id="7" name="JTI"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AP21" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AP21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AP23" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AP23"/>
   <tableColumns count="42">
     <tableColumn id="1" name="Customer "/>
     <tableColumn id="2" name="Qty. PO"/>
@@ -2244,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2286,22 +2283,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>76.522000000000006</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>76.787999999999997</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>29.963000000000001</v>
       </c>
       <c r="E2">
-        <v>138</v>
+        <v>123.34700000000001</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>85.227000000000004</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>38.119999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2309,22 +2306,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>107.059</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>36.343000000000004</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>60.383000000000003</v>
       </c>
       <c r="E3">
-        <v>98</v>
+        <v>83.018999999999977</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>36.343000000000004</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>46.676000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2332,22 +2329,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>357</v>
+        <v>356.66399999999999</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>70.578999999999994</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>130.995</v>
       </c>
       <c r="E4">
-        <v>317</v>
+        <v>296.24799999999999</v>
       </c>
       <c r="F4">
-        <v>246</v>
+        <v>225.66900000000001</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>70.578999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2355,22 +2352,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>76.751999999999995</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>36.881999999999998</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>23.637</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>89.996999999999986</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>36.881999999999998</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>53.115000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2378,22 +2375,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>259</v>
+        <v>259.22800000000001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>66.734999999999999</v>
       </c>
       <c r="E6">
-        <v>197</v>
+        <v>192.49299999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>197</v>
+        <v>192.49299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2401,22 +2398,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>429</v>
+        <v>428.59300000000002</v>
       </c>
       <c r="C7">
-        <v>240</v>
+        <v>240.226</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>168.64</v>
       </c>
       <c r="E7">
-        <v>520</v>
+        <v>500.17899999999997</v>
       </c>
       <c r="F7">
-        <v>453</v>
+        <v>433.23200000000003</v>
       </c>
       <c r="G7">
-        <v>67</v>
+        <v>66.947000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2447,19 +2444,19 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>20.553000000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>5.0259999999999998</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>15.527000000000001</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>15.526999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2493,19 +2490,19 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>81.224000000000004</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="E11">
-        <v>76</v>
+        <v>76.22</v>
       </c>
       <c r="F11">
-        <v>76</v>
+        <v>76.22</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2516,19 +2513,19 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>247</v>
+        <v>247.24700000000001</v>
       </c>
       <c r="C12">
-        <v>74</v>
+        <v>73.962999999999994</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>83.8</v>
       </c>
       <c r="E12">
-        <v>253</v>
+        <v>237.41000000000003</v>
       </c>
       <c r="F12">
-        <v>253</v>
+        <v>237.41</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2539,22 +2536,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>173</v>
+        <v>172.726</v>
       </c>
       <c r="C13">
-        <v>313</v>
+        <v>313.09699999999998</v>
       </c>
       <c r="D13">
-        <v>246</v>
+        <v>256.53399999999999</v>
       </c>
       <c r="E13">
-        <v>239</v>
+        <v>229.28899999999999</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>7.4320000000000004</v>
       </c>
       <c r="G13">
-        <v>232</v>
+        <v>221.857</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2562,19 +2559,19 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>385</v>
+        <v>384.80900000000003</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>60.055999999999997</v>
       </c>
       <c r="E14">
-        <v>325</v>
+        <v>324.75300000000004</v>
       </c>
       <c r="F14">
-        <v>325</v>
+        <v>324.75299999999999</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2585,22 +2582,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>564</v>
+        <v>564.37699999999995</v>
       </c>
       <c r="C15">
-        <v>206</v>
+        <v>206.21799999999999</v>
       </c>
       <c r="D15">
-        <v>330</v>
+        <v>329.81200000000001</v>
       </c>
       <c r="E15">
-        <v>441</v>
+        <v>440.7829999999999</v>
       </c>
       <c r="F15">
-        <v>407</v>
+        <v>440.78300000000002</v>
       </c>
       <c r="G15">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2608,22 +2605,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>441</v>
+        <v>441.40300000000002</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>46.725000000000001</v>
       </c>
       <c r="D16">
-        <v>142</v>
+        <v>154.38499999999999</v>
       </c>
       <c r="E16">
-        <v>328</v>
+        <v>333.74300000000005</v>
       </c>
       <c r="F16">
-        <v>29</v>
+        <v>29.385999999999999</v>
       </c>
       <c r="G16">
-        <v>299</v>
+        <v>304.35700000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2631,22 +2628,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>595</v>
+        <v>594.50699999999995</v>
       </c>
       <c r="C17">
-        <v>113</v>
+        <v>203.999</v>
       </c>
       <c r="D17">
-        <v>272</v>
+        <v>294.99099999999999</v>
       </c>
       <c r="E17">
-        <v>436</v>
+        <v>503.51499999999999</v>
       </c>
       <c r="F17">
-        <v>53</v>
+        <v>22.356000000000002</v>
       </c>
       <c r="G17">
-        <v>383</v>
+        <v>481.15899999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2654,22 +2651,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>147</v>
+        <v>146.62899999999999</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>45.203000000000003</v>
       </c>
       <c r="E18">
-        <v>101</v>
+        <v>101.42599999999999</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>101</v>
+        <v>101.426</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2677,7 +2674,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>15.705</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2686,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>15.705</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>15.705</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2700,22 +2697,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>234</v>
+        <v>233.52699999999999</v>
       </c>
       <c r="C20">
-        <v>225</v>
+        <v>224.715</v>
       </c>
       <c r="D20">
-        <v>101</v>
+        <v>111.621</v>
       </c>
       <c r="E20">
-        <v>357</v>
+        <v>346.62099999999998</v>
       </c>
       <c r="F20">
-        <v>127</v>
+        <v>127.227</v>
       </c>
       <c r="G20">
-        <v>230</v>
+        <v>219.39400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2723,51 +2720,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>83.081999999999994</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>6.0540000000000003</v>
       </c>
       <c r="E21">
-        <v>79</v>
+        <v>77.027999999999992</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <f>SUM(tblBalance[BegBal])</f>
-        <v>4293</v>
-      </c>
-      <c r="C22" s="1">
-        <f>SUM(tblBalance[Incoming])</f>
-        <v>1421</v>
-      </c>
-      <c r="D22" s="1">
-        <f>SUM(tblBalance[Delivery])</f>
-        <v>1674</v>
-      </c>
-      <c r="E22" s="1">
-        <f>SUM(tblBalance[Qty. Stock])</f>
-        <v>4037</v>
-      </c>
-      <c r="F22" s="1">
-        <f>SUM(tblBalance[MAPI])</f>
-        <v>2181</v>
-      </c>
-      <c r="G22" s="1">
-        <f>SUM(tblBalance[JTI])</f>
-        <v>1856</v>
+        <v>77.028000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -2780,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:AP23"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2804,255 +2772,258 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1341.0139999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1327.59</v>
+      </c>
+      <c r="D2" s="2">
+        <v>464.834</v>
+      </c>
+      <c r="E2" s="2">
+        <v>876.17999999999984</v>
+      </c>
+      <c r="F2">
+        <v>15.063000000000001</v>
+      </c>
+      <c r="G2">
+        <v>281.976</v>
+      </c>
+      <c r="H2">
+        <v>147.214</v>
+      </c>
+      <c r="I2">
+        <v>20.581</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>15.063000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>40.337000000000003</v>
+      </c>
+      <c r="N2">
+        <v>64.682000000000002</v>
+      </c>
+      <c r="O2">
+        <v>42.155999999999999</v>
+      </c>
+      <c r="P2">
+        <v>49.634999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>47.433</v>
+      </c>
+      <c r="R2">
+        <v>31.73</v>
+      </c>
+      <c r="S2">
+        <v>6.0030000000000001</v>
+      </c>
+      <c r="T2">
+        <v>29.596</v>
+      </c>
+      <c r="U2">
+        <v>24.739000000000001</v>
+      </c>
+      <c r="V2">
+        <v>25.248000000000001</v>
+      </c>
+      <c r="W2">
+        <v>30.388000000000002</v>
+      </c>
+      <c r="X2">
+        <v>17.587</v>
+      </c>
+      <c r="Y2">
+        <v>19.655999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>20.581</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2839</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2754</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1285</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1554</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>656</v>
-      </c>
-      <c r="H2">
-        <v>597</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>31</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>138</v>
-      </c>
-      <c r="N2">
-        <v>128</v>
-      </c>
-      <c r="O2">
-        <v>106</v>
-      </c>
-      <c r="P2">
-        <v>99</v>
-      </c>
-      <c r="Q2">
-        <v>136</v>
-      </c>
-      <c r="R2">
-        <v>44</v>
-      </c>
-      <c r="S2">
-        <v>6</v>
-      </c>
-      <c r="T2">
-        <v>13</v>
-      </c>
-      <c r="U2">
-        <v>126</v>
-      </c>
-      <c r="V2">
-        <v>148</v>
-      </c>
-      <c r="W2">
-        <v>173</v>
-      </c>
-      <c r="X2">
-        <v>101</v>
-      </c>
-      <c r="Y2">
-        <v>36</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -3060,25 +3031,25 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>496</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>706</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>390</v>
+        <v>31.928999999999998</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>-1.9289999999999985</v>
       </c>
       <c r="F3">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>142</v>
+        <v>31.928999999999998</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3087,25 +3058,25 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.0129999999999999</v>
       </c>
       <c r="O3">
-        <v>71</v>
+        <v>8.0359999999999996</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.98</v>
       </c>
       <c r="Q3">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -3126,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -3178,32 +3149,35 @@
       </c>
       <c r="AO3">
         <v>0</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
-        <v>3335</v>
+        <v>11.798999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>3460</v>
+        <v>11.798999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>1675</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>1660</v>
+        <v>11.798999999999999</v>
       </c>
       <c r="F4">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3212,49 +3186,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3303,32 +3277,35 @@
       </c>
       <c r="AO4">
         <v>0</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
-        <v>1341</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1328</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>424</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E5">
-        <v>917</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>127</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3337,49 +3314,49 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>25</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="V5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3430,30 +3407,30 @@
         <v>0</v>
       </c>
       <c r="AP5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3471,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -3558,33 +3535,33 @@
         <v>0</v>
       </c>
       <c r="AP6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>142.37</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>-82.37</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>16.074000000000002</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>64.712999999999994</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>61.583000000000006</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3593,28 +3570,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.074000000000002</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.359000000000002</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.096</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.090999999999999</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>11.989000000000001</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>12.178000000000001</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3623,19 +3600,19 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>13.031000000000001</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>12.268000000000001</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>12.052</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3686,135 +3663,135 @@
         <v>0</v>
       </c>
       <c r="AP7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>180</v>
+      </c>
+      <c r="D8">
+        <v>60.055999999999997</v>
+      </c>
+      <c r="E8">
+        <v>99.944000000000003</v>
+      </c>
+      <c r="F8">
+        <v>60.055999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>60.055999999999997</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="s">
         <v>45</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>20</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -3822,82 +3799,82 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>208.22900000000001</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>135.989</v>
       </c>
       <c r="D9">
-        <v>142</v>
+        <v>111.621</v>
       </c>
       <c r="E9">
-        <v>82</v>
+        <v>96.608000000000018</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>65</v>
+        <v>46.022000000000006</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>55.382999999999996</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.215999999999999</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>10.048</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>10.028</v>
       </c>
       <c r="O9">
-        <v>12</v>
+        <v>5.9889999999999999</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.9429999999999996</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>10.013999999999999</v>
       </c>
       <c r="R9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>10.087</v>
       </c>
       <c r="U9">
-        <v>13</v>
+        <v>15.145</v>
       </c>
       <c r="V9">
-        <v>12</v>
+        <v>10.079000000000001</v>
       </c>
       <c r="W9">
-        <v>12</v>
+        <v>10.004</v>
       </c>
       <c r="X9">
-        <v>12</v>
+        <v>10.068</v>
       </c>
       <c r="Y9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>10.215999999999999</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -3942,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -3950,25 +3927,25 @@
         <v>47</v>
       </c>
       <c r="B10">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>45.203000000000003</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>59.796999999999997</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>30.061</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.141999999999999</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3977,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3986,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.012</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3995,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>15.048999999999999</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -4013,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>15.141999999999999</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -4070,33 +4047,33 @@
         <v>0</v>
       </c>
       <c r="AP10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>5.0259999999999998</v>
       </c>
       <c r="E11">
-        <v>107</v>
+        <v>-2.5999999999999801E-2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>46</v>
+        <v>3.03</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>1.996</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4111,19 +4088,19 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>3.03</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -4132,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>10</v>
+        <v>1.996</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -4198,36 +4175,36 @@
         <v>0</v>
       </c>
       <c r="AP11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C12">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>130.99499999999998</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>64.005000000000024</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>60.302999999999997</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>60.604999999999997</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.087</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4239,19 +4216,19 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>10.112</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.113</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>14.983000000000001</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>10.045</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -4260,19 +4237,19 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>10.214</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>15.167999999999999</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>10.167</v>
       </c>
       <c r="W12">
-        <v>15</v>
+        <v>14.997999999999999</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>10.058</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -4281,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>10.087</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -4326,36 +4303,36 @@
         <v>0</v>
       </c>
       <c r="AP12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>72.620999999999995</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>35.379000000000005</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>36.088000000000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>24.356999999999999</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.176</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4367,19 +4344,19 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.06</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>12.029</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>11.999000000000001</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4394,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>12.186999999999999</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>12.17</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -4409,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>12.176</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -4454,33 +4431,33 @@
         <v>0</v>
       </c>
       <c r="AP13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>111</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="E14">
-        <v>84</v>
+        <v>-3.9999999999995595E-3</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4495,19 +4472,19 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -4519,16 +4496,16 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -4582,36 +4559,36 @@
         <v>0</v>
       </c>
       <c r="AP14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>83.102000000000004</v>
       </c>
       <c r="E15">
-        <v>48</v>
+        <v>-15.102000000000004</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36</v>
+        <v>38.275999999999996</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>29.712</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.114000000000001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4623,19 +4600,19 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>15.003</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.0579999999999998</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>15.215</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -4650,22 +4627,22 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>12</v>
+        <v>5.0019999999999998</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>20.053000000000001</v>
       </c>
       <c r="X15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>4.657</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>15.114000000000001</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -4710,33 +4687,33 @@
         <v>0</v>
       </c>
       <c r="AP15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>329.81200000000001</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6.1879999999999882</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>141.17099999999999</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>141.59700000000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>47.043999999999997</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4745,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>141.17099999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4757,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>70.813000000000002</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>70.784000000000006</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -4784,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>47.043999999999997</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -4838,33 +4815,33 @@
         <v>0</v>
       </c>
       <c r="AP16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4879,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -4888,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -4906,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -4966,60 +4943,60 @@
         <v>0</v>
       </c>
       <c r="AP17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="B18">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>330</v>
+        <v>36.017000000000003</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0.98299999999999699</v>
       </c>
       <c r="F18">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>142</v>
+        <v>19.057000000000002</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>14.949</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.045000000000002</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>71</v>
+        <v>1.012</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5028,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>14.949</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -5040,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -5049,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -5094,36 +5071,36 @@
         <v>0</v>
       </c>
       <c r="AP18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>122.985</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>126.015</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>39.993000000000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>59.808</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>23.184000000000001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5135,19 +5112,19 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.0950000000000006</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>8.0079999999999991</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5156,19 +5133,19 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>8.1069999999999993</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>23.337</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>17.699000000000002</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>8.1270000000000007</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -5177,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>23.184000000000001</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -5222,33 +5199,33 @@
         <v>0</v>
       </c>
       <c r="AP19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:42">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="B20">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5263,19 +5240,19 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -5284,19 +5261,19 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -5350,135 +5327,391 @@
         <v>0</v>
       </c>
       <c r="AP20" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:42">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22">
+        <v>161</v>
+      </c>
+      <c r="C22">
+        <v>168</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>161</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
         <v>250</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>250</v>
       </c>
-      <c r="D21">
-        <v>161</v>
-      </c>
-      <c r="E21">
-        <v>89</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>161</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>30</v>
-      </c>
-      <c r="V21">
-        <v>50</v>
-      </c>
-      <c r="W21">
-        <v>51</v>
-      </c>
-      <c r="X21">
-        <v>30</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>42</v>
+      <c r="D23">
+        <v>171.364</v>
+      </c>
+      <c r="E23">
+        <v>78.635999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>161.197</v>
+      </c>
+      <c r="I23">
+        <v>10.167</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>30.268000000000001</v>
+      </c>
+      <c r="V23">
+        <v>49.957000000000001</v>
+      </c>
+      <c r="W23">
+        <v>50.749000000000002</v>
+      </c>
+      <c r="X23">
+        <v>30.222999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>10.167</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -5502,101 +5735,101 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" t="s">
         <v>64</v>
       </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>65</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
         <v>71</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>-2</v>
@@ -5605,13 +5838,13 @@
         <v>-9</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L3">
         <v>-1</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O3">
         <v>-11</v>
@@ -5620,7 +5853,7 @@
         <v>-4</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T3">
         <v>-10</v>
@@ -5629,7 +5862,7 @@
         <v>-2</v>
       </c>
       <c r="W3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X3">
         <v>-4</v>
@@ -5638,7 +5871,7 @@
         <v>-1</v>
       </c>
       <c r="AB3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC3">
         <v>-4</v>
@@ -5647,7 +5880,7 @@
         <v>-3</v>
       </c>
       <c r="AF3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG3">
         <v>-1</v>
@@ -5658,10 +5891,10 @@
     </row>
     <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -5670,13 +5903,13 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
         <v>9</v>
@@ -5685,7 +5918,7 @@
         <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
         <v>20</v>
@@ -5694,7 +5927,7 @@
         <v>16</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
         <v>12</v>
@@ -5703,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s">
         <v>19</v>
@@ -5712,7 +5945,7 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s">
         <v>12</v>
@@ -5723,60 +5956,60 @@
     </row>
     <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" t="s">
         <v>79</v>
       </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="AB6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC6" t="s">
         <v>80</v>
       </c>
-      <c r="S6" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="AF6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG6" t="s">
         <v>81</v>
       </c>
-      <c r="W6" t="s">
-        <v>60</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>84</v>
-      </c>
       <c r="AK6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>113267</v>
@@ -5785,7 +6018,7 @@
         <v>113216</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>310726</v>
@@ -5794,7 +6027,7 @@
         <v>113265</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>310729</v>
@@ -5803,7 +6036,7 @@
         <v>113261</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O7">
         <v>113216</v>
@@ -5812,7 +6045,7 @@
         <v>113261</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T7">
         <v>310727</v>
@@ -5821,16 +6054,16 @@
         <v>113262</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X7">
         <v>113262</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AC7">
         <v>113223</v>
@@ -5839,7 +6072,7 @@
         <v>113263</v>
       </c>
       <c r="AF7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG7">
         <v>113263</v>
@@ -5848,18 +6081,18 @@
         <v>113269</v>
       </c>
       <c r="AK7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AM7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>-40</v>
@@ -5868,7 +6101,7 @@
         <v>-32</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>-29</v>
@@ -5877,7 +6110,7 @@
         <v>-37</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>-38</v>
@@ -5886,7 +6119,7 @@
         <v>-40</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O8">
         <v>-40</v>
@@ -5895,7 +6128,7 @@
         <v>-34</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T8">
         <v>-31</v>
@@ -5904,7 +6137,7 @@
         <v>-40</v>
       </c>
       <c r="W8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X8">
         <v>-36</v>
@@ -5913,7 +6146,7 @@
         <v>-40</v>
       </c>
       <c r="AB8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC8">
         <v>-35</v>
@@ -5922,7 +6155,7 @@
         <v>-36</v>
       </c>
       <c r="AF8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG8">
         <v>-40</v>
@@ -5931,7 +6164,7 @@
         <v>-40</v>
       </c>
       <c r="AK8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AL8">
         <v>-3</v>
@@ -5942,7 +6175,7 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -5951,7 +6184,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -5960,7 +6193,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -5969,7 +6202,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -5978,7 +6211,7 @@
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s">
         <v>16</v>
@@ -5987,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="W9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s">
         <v>12</v>
@@ -5996,7 +6229,7 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s">
         <v>9</v>
@@ -6005,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="AF9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s">
         <v>12</v>
@@ -6014,7 +6247,7 @@
         <v>10</v>
       </c>
       <c r="AK9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s">
         <v>17</v>
@@ -6025,63 +6258,63 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" t="s">
         <v>89</v>
       </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="W11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" t="s">
         <v>90</v>
       </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="AB11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="AF11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG11" t="s">
         <v>92</v>
       </c>
-      <c r="W11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="AK11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL11" t="s">
         <v>93</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>113175</v>
@@ -6090,7 +6323,7 @@
         <v>113217</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>113214</v>
@@ -6099,13 +6332,13 @@
         <v>113266</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L12">
         <v>113265</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O12">
         <v>113257</v>
@@ -6114,7 +6347,7 @@
         <v>113256</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T12">
         <v>113226</v>
@@ -6123,37 +6356,37 @@
         <v>113240</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X12">
         <v>113248</v>
       </c>
       <c r="Y12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AC12">
         <v>113213</v>
       </c>
       <c r="AD12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AH12">
         <v>113258</v>
       </c>
       <c r="AK12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AL12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AM12">
         <v>113217</v>
@@ -6161,7 +6394,7 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -6170,7 +6403,7 @@
         <v>-25</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>-48</v>
@@ -6179,13 +6412,13 @@
         <v>-34</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L13">
         <v>-40</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O13">
         <v>-40</v>
@@ -6194,7 +6427,7 @@
         <v>-37</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T13">
         <v>-41</v>
@@ -6203,7 +6436,7 @@
         <v>-44</v>
       </c>
       <c r="W13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X13">
         <v>-36</v>
@@ -6212,7 +6445,7 @@
         <v>-40</v>
       </c>
       <c r="AB13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC13">
         <v>-40</v>
@@ -6221,7 +6454,7 @@
         <v>-40</v>
       </c>
       <c r="AF13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG13">
         <v>-40</v>
@@ -6230,7 +6463,7 @@
         <v>-80</v>
       </c>
       <c r="AK13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AL13">
         <v>-20</v>
@@ -6241,7 +6474,7 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -6250,7 +6483,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -6259,13 +6492,13 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O14" t="s">
         <v>20</v>
@@ -6274,7 +6507,7 @@
         <v>20</v>
       </c>
       <c r="S14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s">
         <v>10</v>
@@ -6283,7 +6516,7 @@
         <v>9</v>
       </c>
       <c r="W14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s">
         <v>12</v>
@@ -6292,7 +6525,7 @@
         <v>19</v>
       </c>
       <c r="AB14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s">
         <v>7</v>
@@ -6301,7 +6534,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s">
         <v>19</v>
@@ -6310,7 +6543,7 @@
         <v>19</v>
       </c>
       <c r="AK14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL14" t="s">
         <v>21</v>
@@ -6321,63 +6554,63 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
         <v>102</v>
       </c>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" t="s">
         <v>103</v>
       </c>
-      <c r="N16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="AB16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC16" t="s">
         <v>104</v>
       </c>
-      <c r="S16" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="AF16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG16" t="s">
         <v>105</v>
       </c>
-      <c r="W16" t="s">
-        <v>60</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="AK16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL16" t="s">
         <v>106</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>113218</v>
@@ -6386,34 +6619,34 @@
         <v>113233</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>310728</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17">
         <v>113245</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O17">
         <v>310725</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T17">
         <v>310720</v>
@@ -6422,7 +6655,7 @@
         <v>113260</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X17">
         <v>113228</v>
@@ -6431,7 +6664,7 @@
         <v>113218</v>
       </c>
       <c r="AB17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AC17">
         <v>113223</v>
@@ -6440,19 +6673,19 @@
         <v>113269</v>
       </c>
       <c r="AF17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG17">
         <v>113224</v>
       </c>
       <c r="AH17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" t="s">
         <v>110</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>113</v>
       </c>
       <c r="AM17">
         <v>113231</v>
@@ -6460,7 +6693,7 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>-32</v>
@@ -6469,7 +6702,7 @@
         <v>-4</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>-28</v>
@@ -6478,7 +6711,7 @@
         <v>-40</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K18">
         <v>-50</v>
@@ -6487,7 +6720,7 @@
         <v>-39</v>
       </c>
       <c r="N18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O18">
         <v>-23</v>
@@ -6496,7 +6729,7 @@
         <v>-40</v>
       </c>
       <c r="S18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T18">
         <v>-31</v>
@@ -6505,7 +6738,7 @@
         <v>-40</v>
       </c>
       <c r="W18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X18">
         <v>-76</v>
@@ -6514,7 +6747,7 @@
         <v>-2</v>
       </c>
       <c r="AB18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC18">
         <v>-40</v>
@@ -6523,7 +6756,7 @@
         <v>-38</v>
       </c>
       <c r="AF18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG18">
         <v>-28</v>
@@ -6532,7 +6765,7 @@
         <v>-2</v>
       </c>
       <c r="AK18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AL18">
         <v>-8</v>
@@ -6543,7 +6776,7 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -6552,7 +6785,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -6561,7 +6794,7 @@
         <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -6570,7 +6803,7 @@
         <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O19" t="s">
         <v>16</v>
@@ -6579,7 +6812,7 @@
         <v>19</v>
       </c>
       <c r="S19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s">
         <v>24</v>
@@ -6588,7 +6821,7 @@
         <v>19</v>
       </c>
       <c r="W19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s">
         <v>10</v>
@@ -6597,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="AB19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s">
         <v>9</v>
@@ -6606,7 +6839,7 @@
         <v>10</v>
       </c>
       <c r="AF19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s">
         <v>9</v>
@@ -6615,7 +6848,7 @@
         <v>19</v>
       </c>
       <c r="AK19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s">
         <v>7</v>
@@ -6626,63 +6859,63 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" t="s">
         <v>114</v>
       </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="S21" t="s">
+        <v>57</v>
+      </c>
+      <c r="T21" t="s">
         <v>115</v>
       </c>
-      <c r="J21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="W21" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" t="s">
         <v>116</v>
       </c>
-      <c r="N21" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="AB21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC21" t="s">
         <v>117</v>
       </c>
-      <c r="S21" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="AF21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG21" t="s">
         <v>118</v>
       </c>
-      <c r="W21" t="s">
-        <v>60</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="AK21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL21" t="s">
         <v>119</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>113268</v>
@@ -6691,16 +6924,16 @@
         <v>113207</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G22">
         <v>113266</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K22">
         <v>113248</v>
@@ -6709,7 +6942,7 @@
         <v>113233</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O22">
         <v>113177</v>
@@ -6718,25 +6951,25 @@
         <v>113257</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U22">
         <v>113213</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y22">
         <v>113259</v>
       </c>
       <c r="AB22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AC22">
         <v>113255</v>
@@ -6745,7 +6978,7 @@
         <v>113242</v>
       </c>
       <c r="AF22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG22">
         <v>113232</v>
@@ -6754,7 +6987,7 @@
         <v>113231</v>
       </c>
       <c r="AK22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AL22">
         <v>113227</v>
@@ -6765,7 +6998,7 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>-75</v>
@@ -6774,7 +7007,7 @@
         <v>-1</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <v>-40</v>
@@ -6783,7 +7016,7 @@
         <v>-41</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K23">
         <v>-40</v>
@@ -6792,7 +7025,7 @@
         <v>-12</v>
       </c>
       <c r="N23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O23">
         <v>-38</v>
@@ -6801,7 +7034,7 @@
         <v>-36</v>
       </c>
       <c r="S23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T23">
         <v>-40</v>
@@ -6810,7 +7043,7 @@
         <v>-24</v>
       </c>
       <c r="W23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X23">
         <v>-16</v>
@@ -6819,7 +7052,7 @@
         <v>-76</v>
       </c>
       <c r="AB23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC23">
         <v>-35</v>
@@ -6828,7 +7061,7 @@
         <v>-36</v>
       </c>
       <c r="AF23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG23">
         <v>-40</v>
@@ -6837,7 +7070,7 @@
         <v>-40</v>
       </c>
       <c r="AK23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AL23">
         <v>-48</v>
@@ -6848,7 +7081,7 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -6857,7 +7090,7 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
@@ -6866,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -6875,7 +7108,7 @@
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O24" t="s">
         <v>12</v>
@@ -6884,7 +7117,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s">
         <v>19</v>
@@ -6893,7 +7126,7 @@
         <v>7</v>
       </c>
       <c r="W24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s">
         <v>9</v>
@@ -6902,7 +7135,7 @@
         <v>19</v>
       </c>
       <c r="AB24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s">
         <v>20</v>
@@ -6911,7 +7144,7 @@
         <v>9</v>
       </c>
       <c r="AF24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s">
         <v>12</v>
@@ -6920,7 +7153,7 @@
         <v>17</v>
       </c>
       <c r="AK24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s">
         <v>10</v>
@@ -6931,63 +7164,63 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" t="s">
         <v>125</v>
       </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="S26" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" t="s">
         <v>126</v>
       </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="W26" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" t="s">
         <v>127</v>
       </c>
-      <c r="N26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="AB26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC26" t="s">
         <v>128</v>
       </c>
-      <c r="S26" t="s">
-        <v>60</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="AF26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG26" t="s">
         <v>129</v>
       </c>
-      <c r="W26" t="s">
-        <v>60</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="AK26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL26" t="s">
         <v>130</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>113230</v>
@@ -6996,7 +7229,7 @@
         <v>113243</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>113247</v>
@@ -7005,7 +7238,7 @@
         <v>113246</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K27">
         <v>113247</v>
@@ -7014,7 +7247,7 @@
         <v>113224</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O27">
         <v>113242</v>
@@ -7023,16 +7256,16 @@
         <v>113246</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X27">
         <v>113226</v>
@@ -7041,7 +7274,7 @@
         <v>113227</v>
       </c>
       <c r="AB27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AC27">
         <v>113256</v>
@@ -7050,7 +7283,7 @@
         <v>113232</v>
       </c>
       <c r="AF27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG27">
         <v>113260</v>
@@ -7059,18 +7292,18 @@
         <v>113264</v>
       </c>
       <c r="AK27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AL27">
         <v>113175</v>
       </c>
       <c r="AM27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>-77</v>
@@ -7079,7 +7312,7 @@
         <v>-2</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F28">
         <v>-40</v>
@@ -7088,7 +7321,7 @@
         <v>-40</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K28">
         <v>40</v>
@@ -7097,7 +7330,7 @@
         <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O28">
         <v>40</v>
@@ -7106,7 +7339,7 @@
         <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T28">
         <v>-28</v>
@@ -7115,7 +7348,7 @@
         <v>-28</v>
       </c>
       <c r="W28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X28">
         <v>-40</v>
@@ -7124,7 +7357,7 @@
         <v>-29</v>
       </c>
       <c r="AB28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC28">
         <v>-40</v>
@@ -7133,7 +7366,7 @@
         <v>-35</v>
       </c>
       <c r="AF28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG28">
         <v>-35</v>
@@ -7142,7 +7375,7 @@
         <v>-31</v>
       </c>
       <c r="AK28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AL28">
         <v>-44</v>
@@ -7153,7 +7386,7 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -7162,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -7171,7 +7404,7 @@
         <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -7180,7 +7413,7 @@
         <v>9</v>
       </c>
       <c r="N29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O29" t="s">
         <v>9</v>
@@ -7189,7 +7422,7 @@
         <v>12</v>
       </c>
       <c r="S29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s">
         <v>19</v>
@@ -7198,7 +7431,7 @@
         <v>20</v>
       </c>
       <c r="W29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s">
         <v>10</v>
@@ -7207,7 +7440,7 @@
         <v>10</v>
       </c>
       <c r="AB29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s">
         <v>20</v>
@@ -7216,7 +7449,7 @@
         <v>12</v>
       </c>
       <c r="AF29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s">
         <v>19</v>
@@ -7225,7 +7458,7 @@
         <v>17</v>
       </c>
       <c r="AK29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s">
         <v>10</v>
@@ -7236,15 +7469,15 @@
     </row>
     <row r="31" spans="1:39">
       <c r="AK31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="AK32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AL32">
         <v>113222</v>
@@ -7255,7 +7488,7 @@
     </row>
     <row r="33" spans="37:39">
       <c r="AK33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AL33">
         <v>-42</v>
@@ -7266,7 +7499,7 @@
     </row>
     <row r="34" spans="37:39">
       <c r="AK34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL34" t="s">
         <v>9</v>
